--- a/steamcase/user/userCancelMatchApplecase.xlsx
+++ b/steamcase/user/userCancelMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{413384B1-4479-4BB7-921C-3863675CE573}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7573F36A-30CB-42C5-A41B-B2F52E102D7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>caseid</t>
   </si>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>/match-service/member/apply/cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户取消报名信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,6 +70,17 @@
   </si>
   <si>
     <t>userCancelMatchAppleTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户取消亲子赛报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_2</t>
+  </si>
+  <si>
+    <t>微信用户取消国赛报名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,9 +98,38 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"start"
-"reqjsonfile":"competitionLabAlertReq"
+"reqjsonfile":"userMatchAppleReq"
 "limitCount" :30000
 "applyId":"100011"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"matchId": 200
+"contactName": "曹操"
+"contactPhone": "18916899938"
+"country": "北京市"
+"school": "李老师"
+"email": "li.taojun@opg.cn"
+"schoolEn": "litaojun"
+"detailAddress": "鹤永路599弄41号1201室"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"postCode": "200100"
+"subMatchName": "国赛-正常-自动化测试-勿动"
+"phoneNo":"18916899938"
+"reqjsonfile":"userMatchAppleReqGuosai"
+"applyId":"100011"</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +150,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -470,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,18 +566,41 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/user/userCancelMatchApplecase.xlsx
+++ b/steamcase/user/userCancelMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7573F36A-30CB-42C5-A41B-B2F52E102D7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F18D7FDD-A5F9-4A62-9F52-9B5B6126852B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/user/userCancelMatchApplecase.xlsx
+++ b/steamcase/user/userCancelMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F18D7FDD-A5F9-4A62-9F52-9B5B6126852B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F32D892F-49CF-4397-90BA-1BBE693AEFB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>/match-service/member/apply/cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply
-preInterfaceUserMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,6 +124,10 @@
 "reqjsonfile":"userMatchAppleReqGuosai"
 "applyId":"100011"</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceUserMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +515,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,16 +564,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -583,22 +581,22 @@
     </row>
     <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
